--- a/Testdata/DocData.xlsx
+++ b/Testdata/DocData.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="442" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="471" uniqueCount="40">
   <si>
     <t>Dr. Sivakumar Mahalingam</t>
   </si>
@@ -504,7 +504,7 @@
         <v>26</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="4">
@@ -520,7 +520,7 @@
         <v>28</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>39</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>

--- a/Testdata/DocData.xlsx
+++ b/Testdata/DocData.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="471" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="491" uniqueCount="45">
   <si>
     <t>Dr. Sivakumar Mahalingam</t>
   </si>
@@ -147,6 +147,21 @@
   </si>
   <si>
     <t>Apollo Clinic</t>
+  </si>
+  <si>
+    <t>Dr. Shiva Kumar</t>
+  </si>
+  <si>
+    <t>Dr. Poornima Parasuraman</t>
+  </si>
+  <si>
+    <t>Dr. Nanda Rajaneesh</t>
+  </si>
+  <si>
+    <t>Dr. Rajasekhar</t>
+  </si>
+  <si>
+    <t>Dr. Manas Ranjan Tripathy</t>
   </si>
 </sst>
 </file>
@@ -485,42 +500,42 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>29</v>
+        <v>34</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>25</v>
+        <v>41</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>30</v>
+        <v>34</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>26</v>
+        <v>42</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>29</v>
+        <v>36</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>27</v>
+        <v>43</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>32</v>
+        <v>35</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>28</v>
+        <v>44</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>33</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>
